--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2697819.441277654</v>
+        <v>2801999.075728726</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>75.45713216103836</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.9153410684994</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>126.099619943321</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>127.3385186497857</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>64.86690209075184</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>129.5398680316081</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>92.2485466439333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>218.5495062926533</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>116.5631275042186</v>
       </c>
       <c r="G8" t="n">
-        <v>187.9397016627827</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>7.658675078570489</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.1065020720554</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>199.6970586308198</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>119.8264588081767</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128881</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1895,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>178.2892930985862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>88.27810958517536</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.7944235414525</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>96.02642072444083</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
-        <v>111.551214499872</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>133.8410052537962</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>141.8888082957382</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>67.63081821229011</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>219.8787494883756</v>
+        <v>219.6739364530935</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>104.795004917596</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>33.66638448559599</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4183,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204828</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1312.873537264416</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4328,16 +4330,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4352,10 +4354,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4364,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
         <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>610.2639694321828</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>441.3277865042759</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>291.2111470919401</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>291.2111470919401</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>792.2622395052706</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>792.2622395052706</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>792.2622395052706</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>537.5777512993837</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>610.2639694321828</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.127034633561</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>457.7221995722995</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>457.7221995722995</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>307.6055601599637</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>159.6924665775706</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>159.6924665775706</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>159.6924665775706</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W7" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>639.3706644025392</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1715.892666966217</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.930150025805</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>988.6644514190546</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E8" t="n">
-        <v>602.8761988208103</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F8" t="n">
-        <v>595.9306980716068</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.09759726723</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2492.63183900615</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>2102.492507030338</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143257</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143257</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143257</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143257</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>691.3843549548114</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122982</v>
+        <v>691.3843549548114</v>
       </c>
       <c r="W10" t="n">
-        <v>394.3777680445654</v>
+        <v>691.3843549548114</v>
       </c>
       <c r="X10" t="n">
-        <v>394.3777680445654</v>
+        <v>691.3843549548114</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.3777680445654</v>
+        <v>691.3843549548114</v>
       </c>
     </row>
     <row r="11">
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>942.5699949746667</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>721.7774158311365</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612.4182386381636</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2076.025718408601</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1786.950491752799</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1532.266003546912</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1242.848833509951</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1014.859282611934</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>794.0667034684034</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.79546553984</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.0028863963103</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5941,19 +5943,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2495.978408795858</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1880.464695940366</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1625.780207734479</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1336.363037697518</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1108.373486799501</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>887.5809076559709</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4578.155157954278</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4578.155157954278</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4289.079931298476</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4034.395443092589</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6500,7 +6502,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6543,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3093.254426444652</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>2924.318243516745</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>2774.20160410441</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2626.288510522017</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4086.138214729047</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3831.45372652316</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>3542.0365564862</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>3314.047005588182</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>3093.254426444652</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.9487421954783</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675714</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1290.379337067265</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1062.389786169248</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>841.597207025718</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,7 +6973,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3045.530642171613</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>2876.594459243706</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243706</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>4220.062895286247</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>3965.37840708036</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>3675.9612370434</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>3447.971686145383</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>3227.179107001853</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3112.537432147378</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C43" t="n">
-        <v>2943.601249219471</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D43" t="n">
-        <v>2793.484609807136</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807136</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309225</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024105</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076438</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>4066.277106118483</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V43" t="n">
-        <v>3811.592617912596</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W43" t="n">
-        <v>3522.175447875636</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X43" t="n">
-        <v>3294.185896977618</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y43" t="n">
-        <v>3294.185896977618</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="44">
@@ -7640,22 +7642,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7664,31 +7666,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,13 +7736,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3229.653730559301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>3060.717547631395</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>2910.600908219059</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>2762.687814636666</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376196</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218394</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866308</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296632</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822171</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998111</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729146</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389154</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098139</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673936</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>4404.185983673936</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>4149.501495468049</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>3860.084325431088</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X46" t="n">
-        <v>3632.094774533071</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y46" t="n">
-        <v>3411.302195389541</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>26.01259675821731</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>97.57899151911161</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>35.11263957635606</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>47.42036229045092</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>58.15585306139381</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>77.79022981064224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>190.1580536648033</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>69.47507150177263</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>152.3434691354479</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>144.6341900408528</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>218.553656176954</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>66.30572490086854</v>
+        <v>66.5105379361506</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>75.03697526434127</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>111.7546635373353</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380336</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380341</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380338</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442545</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="N2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26439,7 +26441,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26454,7 +26456,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550042</v>
+        <v>-852915.9702550049</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725881</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.775472588</v>
+        <v>475828.7754725883</v>
       </c>
       <c r="E6" t="n">
-        <v>224534.2570711251</v>
+        <v>224534.257071125</v>
       </c>
       <c r="F6" t="n">
-        <v>549946.7188784806</v>
+        <v>549946.7188784803</v>
       </c>
       <c r="G6" t="n">
-        <v>549946.7188784801</v>
+        <v>549946.7188784805</v>
       </c>
       <c r="H6" t="n">
         <v>549946.7188784804</v>
       </c>
       <c r="I6" t="n">
-        <v>549946.7188784807</v>
+        <v>549946.7188784803</v>
       </c>
       <c r="J6" t="n">
-        <v>332415.5164812028</v>
+        <v>332415.516481203</v>
       </c>
       <c r="K6" t="n">
-        <v>549946.7188784804</v>
+        <v>549946.7188784799</v>
       </c>
       <c r="L6" t="n">
         <v>549946.7188784803</v>
       </c>
       <c r="M6" t="n">
-        <v>464891.6909429687</v>
+        <v>464891.6909429684</v>
       </c>
       <c r="N6" t="n">
-        <v>549946.7188784801</v>
+        <v>549946.7188784803</v>
       </c>
       <c r="O6" t="n">
-        <v>549946.7188784804</v>
+        <v>549946.7188784805</v>
       </c>
       <c r="P6" t="n">
-        <v>549946.7188784806</v>
+        <v>549946.7188784805</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2767095024422</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>274.7677005521836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>19.32142807961023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>62.4305066816562</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>289.8161395299311</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>256.6980706244454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>52.50646827038749</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0.9994429835159337</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>290.3129182374928</v>
       </c>
       <c r="G8" t="n">
-        <v>222.9820239906707</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28062,16 +28064,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>278.5531631270424</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>17.41649626453557</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31613,13 +31615,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772184</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>524.5136961554247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32233,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32476,7 +32478,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32731,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32783,22 +32785,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.6412480909884</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33025,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868581</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>576.057346513631</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33263,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>574.2721069128561</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>629.0082733147303</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189582</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34147,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>531.8166820790245</v>
       </c>
       <c r="M42" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34378,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34454,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35261,13 +35263,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>393.1719840720914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.65947400496688</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>440.9755796648398</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>433.4611020691866</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>431.6758624684117</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37795,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="M42" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38102,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>471.1188709150848</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38190,7 +38192,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066204</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801999.075728726</v>
+        <v>2797986.465714733</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103836</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567503</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>55.67904331004387</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>127.3385186497857</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>64.86690209075184</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8756750054778</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>218.5495062926533</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>116.5631275042186</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>311.5924776653936</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>7.658675078570489</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>251.0718348128881</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>88.27810958517536</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>117.6579322793572</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>24.83266606353065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>132.6315337216687</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>219.6739364530935</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104.795004917596</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>792.2622395052706</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>792.2622395052706</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>792.2622395052706</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>537.5777512993837</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>248.1605812624231</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.638712032431</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.676195092019</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1546.221676928587</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1160.433424330343</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.638712032431</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4634,52 +4634,52 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>610.2994715124267</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>321.1966046380703</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565137</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624726</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179753</v>
+        <v>773.9857462093216</v>
       </c>
       <c r="E8" t="n">
-        <v>599.325099419731</v>
+        <v>388.1974936110774</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>381.2519928618739</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629259</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>509.7358901245717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7358901245717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4992,22 +4992,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>691.3843549548114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>691.3843549548114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>691.3843549548114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>691.3843549548114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>691.3843549548114</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828076</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6481,7 +6481,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6505,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,25 +6545,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,19 +7025,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>913.2907898187001</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>35.11263957635606</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>120.3791545843333</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>58.15585306139381</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>63.36835372228737</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>123.7828069546817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>32.8926045706001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>66.5105379361506</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.03697526434127</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.315908539</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.460138034</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380341</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442547</v>
@@ -26328,34 +26328,34 @@
         <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>665895.9447442547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442545</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550049</v>
+        <v>-852915.9702550046</v>
       </c>
       <c r="C6" t="n">
+        <v>475828.7754725876</v>
+      </c>
+      <c r="D6" t="n">
         <v>475828.7754725881</v>
       </c>
-      <c r="D6" t="n">
-        <v>475828.7754725883</v>
-      </c>
       <c r="E6" t="n">
-        <v>224534.257071125</v>
+        <v>224186.877816768</v>
       </c>
       <c r="F6" t="n">
-        <v>549946.7188784803</v>
+        <v>549599.3396241233</v>
       </c>
       <c r="G6" t="n">
-        <v>549946.7188784805</v>
+        <v>549599.3396241234</v>
       </c>
       <c r="H6" t="n">
-        <v>549946.7188784804</v>
+        <v>549599.3396241233</v>
       </c>
       <c r="I6" t="n">
-        <v>549946.7188784803</v>
+        <v>549599.3396241234</v>
       </c>
       <c r="J6" t="n">
-        <v>332415.516481203</v>
+        <v>332068.137226846</v>
       </c>
       <c r="K6" t="n">
-        <v>549946.7188784799</v>
+        <v>549599.3396241233</v>
       </c>
       <c r="L6" t="n">
-        <v>549946.7188784803</v>
+        <v>549599.3396241233</v>
       </c>
       <c r="M6" t="n">
-        <v>464891.6909429684</v>
+        <v>464544.3116886115</v>
       </c>
       <c r="N6" t="n">
-        <v>549946.7188784803</v>
+        <v>549599.3396241234</v>
       </c>
       <c r="O6" t="n">
-        <v>549946.7188784805</v>
+        <v>549599.3396241234</v>
       </c>
       <c r="P6" t="n">
-        <v>549946.7188784805</v>
+        <v>549599.3396241234</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024422</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>362.4386851003786</v>
       </c>
     </row>
     <row r="3">
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>89.74200471288736</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>62.4305066816562</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>289.8161395299311</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>71.00037073623366</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9994429835159337</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>290.3129182374928</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>99.32924798805988</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27909,16 +27909,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>278.5531631270424</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32478,7 +32478,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32791,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33265,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>629.0082733147303</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>516.654215558583</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33997,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34146,10 +34146,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34213,10 +34213,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>490.4538935348562</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37861,10 +37861,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2797986.465714733</v>
+        <v>2799746.996017519</v>
       </c>
     </row>
     <row r="7">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567503</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>55.67904331004387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>206.8973285420763</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>335.8756750054778</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>331.8506886458341</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044427</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>232.8521789952008</v>
       </c>
       <c r="G8" t="n">
-        <v>311.5924776653936</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722604</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>16.09765778288568</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>117.6579322793572</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,19 +4360,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.4564109463977</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C4" t="n">
-        <v>290.4564109463977</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D4" t="n">
-        <v>290.4564109463977</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>290.4564109463977</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>692.8974549201675</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.1048757766374</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535337</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535337</v>
+        <v>1496.072590015141</v>
       </c>
       <c r="D5" t="n">
-        <v>1546.221676928587</v>
+        <v>1496.072590015141</v>
       </c>
       <c r="E5" t="n">
-        <v>1160.433424330343</v>
+        <v>1110.284337416897</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>699.298432627289</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4667,31 +4667,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4767,10 +4767,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1501.213961756484</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>1132.251444816072</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D8" t="n">
-        <v>773.9857462093216</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="E8" t="n">
-        <v>388.1974936110774</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2519928618739</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4840,16 +4840,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
         <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1887.813801820605</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218342</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>696.7084350851662</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>696.7084350851662</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>546.5917956728305</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>398.6787020904374</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>251.788754592527</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>251.788754592527</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>110.0769234347251</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1871.240688199801</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1616.556199993914</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1099.149479058936</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>878.356899915406</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,16 +5788,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797186</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.070983590888</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2041.469518613829</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1752.394291958027</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1497.70980375214</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.292633715179</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>980.3030828171618</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>759.5105036736317</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6651,16 +6651,16 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
         <v>974.1018203925706</v>
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7125,7 +7125,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,22 +7259,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>65.16817853567989</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>63.36835372228737</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760639.3159085391</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.3159085391</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442545</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
+        <v>14826.69604186744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14826.69604186742</v>
+      </c>
+      <c r="G4" t="n">
         <v>14826.6960418674</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186742</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186742</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550046</v>
+        <v>-852915.9702550047</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725876</v>
+        <v>475828.7754725879</v>
       </c>
       <c r="D6" t="n">
         <v>475828.7754725881</v>
       </c>
       <c r="E6" t="n">
-        <v>224186.877816768</v>
+        <v>224499.5191456899</v>
       </c>
       <c r="F6" t="n">
-        <v>549599.3396241233</v>
+        <v>549911.9809530443</v>
       </c>
       <c r="G6" t="n">
-        <v>549599.3396241234</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="H6" t="n">
-        <v>549599.3396241233</v>
+        <v>549911.9809530444</v>
       </c>
       <c r="I6" t="n">
-        <v>549599.3396241234</v>
+        <v>549911.9809530446</v>
       </c>
       <c r="J6" t="n">
-        <v>332068.137226846</v>
+        <v>332380.7785557669</v>
       </c>
       <c r="K6" t="n">
-        <v>549599.3396241233</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="L6" t="n">
-        <v>549599.3396241233</v>
+        <v>549911.9809530446</v>
       </c>
       <c r="M6" t="n">
-        <v>464544.3116886115</v>
+        <v>464856.9530175328</v>
       </c>
       <c r="N6" t="n">
-        <v>549599.3396241234</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="O6" t="n">
-        <v>549599.3396241234</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="P6" t="n">
-        <v>549599.3396241234</v>
+        <v>549911.9809530447</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003786</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="3">
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>89.74200471288736</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>11.68732481001845</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>71.00037073623366</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>79.0710370076194</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>94.15744254776808</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>174.0238667465106</v>
       </c>
       <c r="G8" t="n">
-        <v>99.32924798805988</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.8817498053001</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,22 +28092,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.354954244041957e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28155,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>5.554921602067354e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>5.554921602067354e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113971</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -33417,13 +33417,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>516.654215558583</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280637</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>374.5201816365647</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
